--- a/4. Business Economics/Exercise/Notes.XLSX
+++ b/4. Business Economics/Exercise/Notes.XLSX
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\Repository\International-Business-Logistics---Green-Management\4. Business Economics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\Repository\International-Business-Logistics---Green-Management\4. Business Economics\Exercise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{627AA65C-6B0B-4AC9-A1F9-0B7E97BD4B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A3A058-C39A-46F9-809B-575C046DC21A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cykeluppgift" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <sheet name="Resultatbudget Millas kjolar" sheetId="4" r:id="rId10"/>
     <sheet name="Resultatbudget Mollys cyklar" sheetId="5" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1285,7 +1285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1395,25 +1395,31 @@
     <xf numFmtId="3" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="13" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="1" fontId="13" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="13" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1421,11 +1427,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1437,48 +1438,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2109,14 +2082,14 @@
   <dimension ref="B1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.5546875" style="31" customWidth="1"/>
-    <col min="2" max="2" width="27.5546875" style="31" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" style="31" customWidth="1"/>
+    <col min="2" max="2" width="29.21875" style="31" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" style="31" customWidth="1"/>
     <col min="4" max="4" width="2.6640625" style="31" customWidth="1"/>
     <col min="5" max="5" width="3.5546875" style="31" customWidth="1"/>
     <col min="6" max="6" width="16.6640625" style="31" customWidth="1"/>
@@ -2447,11 +2420,11 @@
       </c>
     </row>
     <row r="21" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E21" s="61" t="s">
+      <c r="E21" s="88" t="s">
         <v>106</v>
       </c>
-      <c r="F21" s="62"/>
-      <c r="G21" s="63">
+      <c r="F21" s="89"/>
+      <c r="G21" s="61">
         <f>_xlfn.CEILING.MATH(F20/I18)</f>
         <v>906</v>
       </c>
@@ -2469,7 +2442,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0CA5E5D-0171-4791-BA61-A1DFD8BEAE1D}">
   <dimension ref="B1:J25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
@@ -2490,7 +2463,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="62" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2672,7 +2645,7 @@
       <c r="F13" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="G13" s="65">
+      <c r="G13" s="63">
         <f>I18/I16</f>
         <v>0.8</v>
       </c>
@@ -2808,11 +2781,11 @@
       </c>
     </row>
     <row r="21" spans="2:9" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="E21" s="61" t="s">
+      <c r="E21" s="88" t="s">
         <v>106</v>
       </c>
-      <c r="F21" s="62"/>
-      <c r="G21" s="66">
+      <c r="F21" s="89"/>
+      <c r="G21" s="64">
         <f>_xlfn.CEILING.MATH(F20/I18)</f>
         <v>516</v>
       </c>
@@ -3714,8 +3687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECE9D52C-9481-4469-A3EE-F7B4EE9E74CA}">
   <dimension ref="B1:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3739,71 +3712,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="68"/>
+      <c r="C1" s="66"/>
       <c r="R1" s="18" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="2" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="86" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="F2" s="70" t="s">
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="F2" s="87" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="J2" s="70" t="s">
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="J2" s="87" t="s">
         <v>119</v>
       </c>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="N2" s="70" t="s">
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="N2" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="71" t="s">
+      <c r="D3" s="67" t="s">
         <v>122</v>
       </c>
-      <c r="F3" s="71" t="s">
+      <c r="F3" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="G3" s="71" t="s">
+      <c r="G3" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="H3" s="71" t="s">
+      <c r="H3" s="67" t="s">
         <v>122</v>
       </c>
-      <c r="J3" s="71" t="s">
+      <c r="J3" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="K3" s="71" t="s">
+      <c r="K3" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="L3" s="71" t="s">
+      <c r="L3" s="67" t="s">
         <v>122</v>
       </c>
-      <c r="N3" s="71" t="s">
+      <c r="N3" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="O3" s="71" t="s">
+      <c r="O3" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="P3" s="71" t="s">
+      <c r="P3" s="67" t="s">
         <v>122</v>
       </c>
       <c r="R3" s="6" t="s">
@@ -3811,442 +3784,442 @@
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="78" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="74"/>
-      <c r="F4" s="72" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="80"/>
+      <c r="F4" s="78" t="s">
         <v>124</v>
       </c>
-      <c r="G4" s="73"/>
-      <c r="H4" s="74"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="N4" s="75"/>
-      <c r="O4" s="75"/>
-      <c r="P4" s="75"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="80"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
       <c r="R4" s="6" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="75"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
       <c r="R5" s="6" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="71" t="s">
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="67" t="s">
         <v>125</v>
       </c>
-      <c r="H6" s="76">
+      <c r="H6" s="69">
         <v>0</v>
       </c>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
-      <c r="N6" s="75"/>
-      <c r="O6" s="75"/>
-      <c r="P6" s="75"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="68"/>
       <c r="R6" s="6" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B7" s="75"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
-      <c r="L7" s="75"/>
-      <c r="N7" s="75"/>
-      <c r="O7" s="75"/>
-      <c r="P7" s="75"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="68"/>
       <c r="R7" s="6" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="78" t="s">
         <v>126</v>
       </c>
-      <c r="C8" s="73"/>
-      <c r="D8" s="74"/>
-      <c r="F8" s="72" t="s">
+      <c r="C8" s="79"/>
+      <c r="D8" s="80"/>
+      <c r="F8" s="78" t="s">
         <v>127</v>
       </c>
-      <c r="G8" s="73"/>
-      <c r="H8" s="74"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="75"/>
-      <c r="N8" s="75"/>
-      <c r="O8" s="75"/>
-      <c r="P8" s="75"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="80"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="68"/>
       <c r="R8" s="6" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B9" s="75"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="75"/>
-      <c r="N9" s="75"/>
-      <c r="O9" s="75"/>
-      <c r="P9" s="75"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="68"/>
+      <c r="P9" s="68"/>
       <c r="R9" s="6" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B10" s="75"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="75"/>
-      <c r="L10" s="75"/>
-      <c r="N10" s="75"/>
-      <c r="O10" s="75"/>
-      <c r="P10" s="75"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
+      <c r="N10" s="68"/>
+      <c r="O10" s="68"/>
+      <c r="P10" s="68"/>
       <c r="R10" s="6" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B11" s="22"/>
-      <c r="C11" s="75"/>
+      <c r="C11" s="68"/>
       <c r="D11" s="22"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77"/>
-      <c r="J11" s="75"/>
-      <c r="K11" s="75"/>
-      <c r="L11" s="75"/>
-      <c r="N11" s="75"/>
-      <c r="O11" s="75"/>
-      <c r="P11" s="75"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
+      <c r="N11" s="68"/>
+      <c r="O11" s="68"/>
+      <c r="P11" s="68"/>
       <c r="R11" s="6" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B12" s="75"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="75"/>
-      <c r="F12" s="72" t="s">
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="F12" s="78" t="s">
         <v>128</v>
       </c>
-      <c r="G12" s="73"/>
-      <c r="H12" s="74"/>
-      <c r="J12" s="75"/>
-      <c r="K12" s="75"/>
-      <c r="L12" s="75"/>
-      <c r="N12" s="75"/>
-      <c r="O12" s="75"/>
-      <c r="P12" s="75"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="80"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="68"/>
+      <c r="P12" s="68"/>
       <c r="R12" s="6" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B13" s="75"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="75"/>
-      <c r="L13" s="75"/>
-      <c r="N13" s="75"/>
-      <c r="O13" s="75"/>
-      <c r="P13" s="75"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="68"/>
+      <c r="P13" s="68"/>
       <c r="R13" s="6" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B14" s="75"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
-      <c r="J14" s="75"/>
-      <c r="K14" s="75"/>
-      <c r="L14" s="75"/>
-      <c r="N14" s="75"/>
-      <c r="O14" s="75"/>
-      <c r="P14" s="75"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="68"/>
+      <c r="P14" s="68"/>
       <c r="R14" s="6" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B15" s="75"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="75"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="75"/>
-      <c r="J15" s="75"/>
-      <c r="K15" s="75"/>
-      <c r="L15" s="75"/>
-      <c r="N15" s="75"/>
-      <c r="O15" s="75"/>
-      <c r="P15" s="75"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="68"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="68"/>
+      <c r="P15" s="68"/>
       <c r="R15" s="6" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B16" s="75"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75"/>
-      <c r="J16" s="75"/>
-      <c r="K16" s="75"/>
-      <c r="L16" s="75"/>
-      <c r="N16" s="75"/>
-      <c r="O16" s="75"/>
-      <c r="P16" s="75"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
+      <c r="N16" s="68"/>
+      <c r="O16" s="68"/>
+      <c r="P16" s="68"/>
       <c r="R16" s="6" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B17" s="75"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="J17" s="75"/>
-      <c r="K17" s="75"/>
-      <c r="L17" s="75"/>
-      <c r="N17" s="75"/>
-      <c r="O17" s="75"/>
-      <c r="P17" s="75"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="68"/>
+      <c r="N17" s="68"/>
+      <c r="O17" s="68"/>
+      <c r="P17" s="68"/>
       <c r="R17" s="6" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B18" s="75"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="75"/>
-      <c r="J18" s="75"/>
-      <c r="K18" s="75"/>
-      <c r="L18" s="75"/>
-      <c r="N18" s="75"/>
-      <c r="O18" s="75"/>
-      <c r="P18" s="75"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="68"/>
+      <c r="N18" s="68"/>
+      <c r="O18" s="68"/>
+      <c r="P18" s="68"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B19" s="75"/>
-      <c r="C19" s="75"/>
-      <c r="D19" s="75"/>
-      <c r="F19" s="75" t="s">
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="F19" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="G19" s="75" t="s">
+      <c r="G19" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="H19" s="75" t="s">
+      <c r="H19" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="J19" s="75"/>
-      <c r="K19" s="75"/>
-      <c r="L19" s="75"/>
-      <c r="N19" s="75"/>
-      <c r="O19" s="75"/>
-      <c r="P19" s="75"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="68"/>
+      <c r="N19" s="68"/>
+      <c r="O19" s="68"/>
+      <c r="P19" s="68"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B20" s="75"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="75"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="75"/>
-      <c r="J20" s="75"/>
-      <c r="K20" s="75"/>
-      <c r="L20" s="75"/>
-      <c r="N20" s="75"/>
-      <c r="O20" s="75"/>
-      <c r="P20" s="75"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="68"/>
+      <c r="N20" s="68"/>
+      <c r="O20" s="68"/>
+      <c r="P20" s="68"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B21" s="75"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="75"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="75"/>
-      <c r="J21" s="75"/>
-      <c r="K21" s="75"/>
-      <c r="L21" s="75"/>
-      <c r="N21" s="75"/>
-      <c r="O21" s="75"/>
-      <c r="P21" s="75"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="68"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="68"/>
+      <c r="N21" s="68"/>
+      <c r="O21" s="68"/>
+      <c r="P21" s="68"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B22" s="75"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="75"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="75"/>
-      <c r="J22" s="75"/>
-      <c r="K22" s="71" t="s">
+      <c r="B22" s="68"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="68"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="67" t="s">
         <v>129</v>
       </c>
-      <c r="L22" s="71">
+      <c r="L22" s="67">
         <f>SUM(L4:L21)</f>
         <v>0</v>
       </c>
-      <c r="N22" s="75"/>
-      <c r="O22" s="71" t="s">
+      <c r="N22" s="68"/>
+      <c r="O22" s="67" t="s">
         <v>130</v>
       </c>
-      <c r="P22" s="71">
+      <c r="P22" s="67">
         <f>SUM(P4:P21)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B23" s="75"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="75"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="75"/>
-      <c r="J23" s="78" t="s">
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="68"/>
+      <c r="J23" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="K23" s="79"/>
-      <c r="L23" s="80"/>
-      <c r="N23" s="78" t="s">
+      <c r="K23" s="82"/>
+      <c r="L23" s="83"/>
+      <c r="N23" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="O23" s="79"/>
-      <c r="P23" s="80"/>
+      <c r="O23" s="82"/>
+      <c r="P23" s="83"/>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B24" s="75"/>
-      <c r="C24" s="75"/>
-      <c r="D24" s="75"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="75"/>
-      <c r="J24" s="75" t="s">
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="J24" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="K24" s="81" t="s">
+      <c r="K24" s="71" t="s">
         <v>125</v>
       </c>
-      <c r="L24" s="76">
+      <c r="L24" s="69">
         <f>P22-L22</f>
         <v>0</v>
       </c>
-      <c r="N24" s="75"/>
-      <c r="O24" s="75"/>
-      <c r="P24" s="75"/>
+      <c r="N24" s="68"/>
+      <c r="O24" s="68"/>
+      <c r="P24" s="68"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B25" s="75" t="s">
+      <c r="B25" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="75" t="s">
+      <c r="C25" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="75" t="s">
+      <c r="D25" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="75"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="75"/>
-      <c r="J25" s="75"/>
-      <c r="K25" s="75"/>
-      <c r="L25" s="75"/>
-      <c r="N25" s="75"/>
-      <c r="O25" s="75"/>
-      <c r="P25" s="75"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="68"/>
+      <c r="J25" s="68"/>
+      <c r="K25" s="68"/>
+      <c r="L25" s="68"/>
+      <c r="N25" s="68"/>
+      <c r="O25" s="68"/>
+      <c r="P25" s="68"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B26" s="82" t="s">
+      <c r="B26" s="84" t="s">
         <v>131</v>
       </c>
-      <c r="C26" s="83"/>
-      <c r="D26" s="84">
+      <c r="C26" s="85"/>
+      <c r="D26" s="72">
         <f>SUM(D5:D25)</f>
         <v>0</v>
       </c>
-      <c r="E26" s="85"/>
-      <c r="F26" s="82" t="s">
+      <c r="E26" s="73"/>
+      <c r="F26" s="84" t="s">
         <v>131</v>
       </c>
-      <c r="G26" s="83"/>
-      <c r="H26" s="84">
+      <c r="G26" s="85"/>
+      <c r="H26" s="72">
         <f>SUM(H5:H25)</f>
         <v>0</v>
       </c>
-      <c r="J26" s="75"/>
-      <c r="K26" s="75"/>
-      <c r="L26" s="75"/>
-      <c r="N26" s="75"/>
-      <c r="O26" s="75"/>
-      <c r="P26" s="75"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="68"/>
+      <c r="L26" s="68"/>
+      <c r="N26" s="68"/>
+      <c r="O26" s="68"/>
+      <c r="P26" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="J2:L2"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="F8:H8"/>
     <mergeCell ref="F12:H12"/>
     <mergeCell ref="J23:L23"/>
     <mergeCell ref="N23:P23"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4281,75 +4254,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="65" t="s">
         <v>148</v>
       </c>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="R1" s="87" t="s">
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="R1" s="75" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="2" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="86" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="F2" s="70" t="s">
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="F2" s="87" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="J2" s="70" t="s">
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="J2" s="87" t="s">
         <v>119</v>
       </c>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="N2" s="70" t="s">
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="N2" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
       <c r="R2" s="18"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="71" t="s">
+      <c r="D3" s="67" t="s">
         <v>122</v>
       </c>
-      <c r="F3" s="71" t="s">
+      <c r="F3" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="G3" s="71" t="s">
+      <c r="G3" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="H3" s="71" t="s">
+      <c r="H3" s="67" t="s">
         <v>122</v>
       </c>
-      <c r="J3" s="71" t="s">
+      <c r="J3" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="K3" s="71" t="s">
+      <c r="K3" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="L3" s="71" t="s">
+      <c r="L3" s="67" t="s">
         <v>122</v>
       </c>
-      <c r="N3" s="71" t="s">
+      <c r="N3" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="O3" s="71" t="s">
+      <c r="O3" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="P3" s="71" t="s">
+      <c r="P3" s="67" t="s">
         <v>122</v>
       </c>
       <c r="R3" s="6" t="s">
@@ -4357,473 +4330,473 @@
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="78" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="74"/>
-      <c r="F4" s="72" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="80"/>
+      <c r="F4" s="78" t="s">
         <v>124</v>
       </c>
-      <c r="G4" s="73"/>
-      <c r="H4" s="74"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="N4" s="75"/>
-      <c r="O4" s="75"/>
-      <c r="P4" s="75"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="80"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
       <c r="R4" s="6" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="75"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
       <c r="R5" s="6" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="71" t="s">
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="67" t="s">
         <v>125</v>
       </c>
-      <c r="H6" s="76">
+      <c r="H6" s="69">
         <v>0</v>
       </c>
-      <c r="J6" s="75"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
-      <c r="N6" s="75"/>
-      <c r="O6" s="75"/>
-      <c r="P6" s="75"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="68"/>
       <c r="R6" s="6" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B7" s="75"/>
-      <c r="C7" s="71" t="s">
+      <c r="B7" s="68"/>
+      <c r="C7" s="67" t="s">
         <v>149</v>
       </c>
-      <c r="D7" s="71">
+      <c r="D7" s="67">
         <f>SUM(D5:D6)</f>
         <v>0</v>
       </c>
-      <c r="F7" s="75"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="76"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="75"/>
-      <c r="L7" s="75"/>
-      <c r="N7" s="75"/>
-      <c r="O7" s="75"/>
-      <c r="P7" s="75"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="69"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="68"/>
       <c r="R7" s="6" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="78" t="s">
         <v>126</v>
       </c>
-      <c r="C8" s="73"/>
-      <c r="D8" s="74"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="71" t="s">
+      <c r="C8" s="79"/>
+      <c r="D8" s="80"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="67" t="s">
         <v>150</v>
       </c>
-      <c r="H8" s="71">
+      <c r="H8" s="67">
         <f>SUM(H5:H7)</f>
         <v>0</v>
       </c>
-      <c r="J8" s="75"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="75"/>
-      <c r="N8" s="75"/>
-      <c r="O8" s="75"/>
-      <c r="P8" s="75"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+      <c r="L8" s="68"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="68"/>
       <c r="R8" s="6" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B9" s="75"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="F9" s="72" t="s">
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="F9" s="78" t="s">
         <v>127</v>
       </c>
-      <c r="G9" s="73"/>
-      <c r="H9" s="74"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="75"/>
-      <c r="N9" s="75"/>
-      <c r="O9" s="75"/>
-      <c r="P9" s="75"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="80"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="68"/>
+      <c r="P9" s="68"/>
       <c r="R9" s="6" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B10" s="75"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="75"/>
-      <c r="L10" s="75"/>
-      <c r="N10" s="75"/>
-      <c r="O10" s="75"/>
-      <c r="P10" s="75"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
+      <c r="N10" s="68"/>
+      <c r="O10" s="68"/>
+      <c r="P10" s="68"/>
       <c r="R10" s="6" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B11" s="22"/>
-      <c r="C11" s="75"/>
+      <c r="C11" s="68"/>
       <c r="D11" s="22"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="75"/>
-      <c r="J11" s="75"/>
-      <c r="K11" s="75"/>
-      <c r="L11" s="75"/>
-      <c r="N11" s="75"/>
-      <c r="O11" s="75"/>
-      <c r="P11" s="75"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
+      <c r="N11" s="68"/>
+      <c r="O11" s="68"/>
+      <c r="P11" s="68"/>
       <c r="R11" s="6" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B12" s="75"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="75"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="86" t="s">
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="74" t="s">
         <v>151</v>
       </c>
-      <c r="H12" s="81">
+      <c r="H12" s="71">
         <f>SUM(H10:H11)</f>
         <v>0</v>
       </c>
-      <c r="J12" s="75"/>
-      <c r="K12" s="75"/>
-      <c r="L12" s="75"/>
-      <c r="N12" s="75"/>
-      <c r="O12" s="75"/>
-      <c r="P12" s="75"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="68"/>
+      <c r="P12" s="68"/>
       <c r="R12" s="6" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B13" s="75"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="F13" s="72" t="s">
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="F13" s="78" t="s">
         <v>128</v>
       </c>
-      <c r="G13" s="73"/>
-      <c r="H13" s="74"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="75"/>
-      <c r="L13" s="75"/>
-      <c r="N13" s="75"/>
-      <c r="O13" s="75"/>
-      <c r="P13" s="75"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="80"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="68"/>
+      <c r="P13" s="68"/>
       <c r="R13" s="6" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B14" s="75"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
-      <c r="J14" s="75"/>
-      <c r="K14" s="75"/>
-      <c r="L14" s="75"/>
-      <c r="N14" s="75"/>
-      <c r="O14" s="75"/>
-      <c r="P14" s="75"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="68"/>
+      <c r="P14" s="68"/>
       <c r="R14" s="6" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B15" s="75"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="75"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="75"/>
-      <c r="J15" s="75"/>
-      <c r="K15" s="75"/>
-      <c r="L15" s="75"/>
-      <c r="N15" s="75"/>
-      <c r="O15" s="75"/>
-      <c r="P15" s="75"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="68"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="68"/>
+      <c r="P15" s="68"/>
       <c r="R15" s="6" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B16" s="75"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75"/>
-      <c r="J16" s="75"/>
-      <c r="K16" s="75"/>
-      <c r="L16" s="75"/>
-      <c r="N16" s="75"/>
-      <c r="O16" s="75"/>
-      <c r="P16" s="75"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
+      <c r="N16" s="68"/>
+      <c r="O16" s="68"/>
+      <c r="P16" s="68"/>
       <c r="R16" s="6" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B17" s="75"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="J17" s="75"/>
-      <c r="K17" s="75"/>
-      <c r="L17" s="75"/>
-      <c r="N17" s="75"/>
-      <c r="O17" s="75"/>
-      <c r="P17" s="75"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="68"/>
+      <c r="N17" s="68"/>
+      <c r="O17" s="68"/>
+      <c r="P17" s="68"/>
       <c r="R17" s="6" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B18" s="75"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="75"/>
-      <c r="J18" s="75"/>
-      <c r="K18" s="75"/>
-      <c r="L18" s="75"/>
-      <c r="N18" s="75"/>
-      <c r="O18" s="75"/>
-      <c r="P18" s="75"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="68"/>
+      <c r="N18" s="68"/>
+      <c r="O18" s="68"/>
+      <c r="P18" s="68"/>
       <c r="R18" s="6" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B19" s="75"/>
-      <c r="C19" s="75"/>
-      <c r="D19" s="75"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="75"/>
-      <c r="J19" s="75"/>
-      <c r="K19" s="75"/>
-      <c r="L19" s="75"/>
-      <c r="N19" s="75"/>
-      <c r="O19" s="75"/>
-      <c r="P19" s="75"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="68"/>
+      <c r="N19" s="68"/>
+      <c r="O19" s="68"/>
+      <c r="P19" s="68"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B20" s="75"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="75"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="75"/>
-      <c r="J20" s="75"/>
-      <c r="K20" s="75"/>
-      <c r="L20" s="75"/>
-      <c r="N20" s="75"/>
-      <c r="O20" s="75"/>
-      <c r="P20" s="75"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="68"/>
+      <c r="N20" s="68"/>
+      <c r="O20" s="68"/>
+      <c r="P20" s="68"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B21" s="75"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="75"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="75"/>
-      <c r="J21" s="75"/>
-      <c r="K21" s="75"/>
-      <c r="L21" s="75"/>
-      <c r="N21" s="75"/>
-      <c r="O21" s="75"/>
-      <c r="P21" s="75"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="68"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="68"/>
+      <c r="N21" s="68"/>
+      <c r="O21" s="68"/>
+      <c r="P21" s="68"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B22" s="75"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="75"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="75"/>
-      <c r="J22" s="75"/>
-      <c r="K22" s="75"/>
-      <c r="L22" s="75"/>
-      <c r="N22" s="75"/>
-      <c r="O22" s="75"/>
-      <c r="P22" s="75"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="68"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="68"/>
+      <c r="N22" s="68"/>
+      <c r="O22" s="68"/>
+      <c r="P22" s="68"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B23" s="75"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="75"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="75"/>
-      <c r="J23" s="75"/>
-      <c r="K23" s="71" t="s">
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="68"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="67" t="s">
         <v>129</v>
       </c>
-      <c r="L23" s="71">
+      <c r="L23" s="67">
         <f>SUM(L4:L22)</f>
         <v>0</v>
       </c>
-      <c r="M23" s="85"/>
-      <c r="N23" s="71"/>
-      <c r="O23" s="71" t="s">
+      <c r="M23" s="73"/>
+      <c r="N23" s="67"/>
+      <c r="O23" s="67" t="s">
         <v>130</v>
       </c>
-      <c r="P23" s="71">
+      <c r="P23" s="67">
         <f>SUM(P4:P22)</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B24" s="75"/>
-      <c r="C24" s="75"/>
-      <c r="D24" s="75"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="75"/>
-      <c r="J24" s="78" t="s">
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="J24" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="K24" s="79"/>
-      <c r="L24" s="80"/>
-      <c r="N24" s="78" t="s">
+      <c r="K24" s="82"/>
+      <c r="L24" s="83"/>
+      <c r="N24" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="O24" s="79"/>
-      <c r="P24" s="80"/>
+      <c r="O24" s="82"/>
+      <c r="P24" s="83"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B25" s="75"/>
-      <c r="C25" s="75"/>
-      <c r="D25" s="75"/>
-      <c r="F25" s="75"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="75"/>
-      <c r="J25" s="75"/>
-      <c r="K25" s="81" t="s">
+      <c r="B25" s="68"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="68"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="68"/>
+      <c r="J25" s="68"/>
+      <c r="K25" s="71" t="s">
         <v>125</v>
       </c>
-      <c r="L25" s="76">
+      <c r="L25" s="69">
         <f>P23-L23</f>
         <v>0</v>
       </c>
-      <c r="N25" s="75"/>
-      <c r="O25" s="75"/>
-      <c r="P25" s="75"/>
+      <c r="N25" s="68"/>
+      <c r="O25" s="68"/>
+      <c r="P25" s="68"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B26" s="75" t="s">
+      <c r="B26" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="71" t="s">
+      <c r="C26" s="67" t="s">
         <v>152</v>
       </c>
-      <c r="D26" s="71">
+      <c r="D26" s="67">
         <f>SUM(D9:D25)</f>
         <v>0</v>
       </c>
-      <c r="F26" s="75"/>
-      <c r="G26" s="86" t="s">
+      <c r="F26" s="68"/>
+      <c r="G26" s="74" t="s">
         <v>151</v>
       </c>
-      <c r="H26" s="81">
+      <c r="H26" s="71">
         <f>SUM(H14:H25)</f>
         <v>0</v>
       </c>
-      <c r="J26" s="75"/>
-      <c r="K26" s="75"/>
-      <c r="L26" s="75"/>
-      <c r="N26" s="75"/>
-      <c r="O26" s="75"/>
-      <c r="P26" s="75"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="68"/>
+      <c r="L26" s="68"/>
+      <c r="N26" s="68"/>
+      <c r="O26" s="68"/>
+      <c r="P26" s="68"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B27" s="82" t="s">
+      <c r="B27" s="84" t="s">
         <v>131</v>
       </c>
-      <c r="C27" s="83"/>
-      <c r="D27" s="84">
+      <c r="C27" s="85"/>
+      <c r="D27" s="72">
         <f>D7+D26</f>
         <v>0</v>
       </c>
-      <c r="E27" s="85"/>
-      <c r="F27" s="82" t="s">
+      <c r="E27" s="73"/>
+      <c r="F27" s="84" t="s">
         <v>131</v>
       </c>
-      <c r="G27" s="83"/>
-      <c r="H27" s="84">
+      <c r="G27" s="85"/>
+      <c r="H27" s="72">
         <f>H8+H12+H26</f>
         <v>0</v>
       </c>
-      <c r="J27" s="75"/>
-      <c r="K27" s="75"/>
-      <c r="L27" s="75"/>
-      <c r="N27" s="75"/>
-      <c r="O27" s="75"/>
-      <c r="P27" s="75"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="68"/>
+      <c r="L27" s="68"/>
+      <c r="N27" s="68"/>
+      <c r="O27" s="68"/>
+      <c r="P27" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="J2:L2"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="F9:H9"/>
     <mergeCell ref="F13:H13"/>
     <mergeCell ref="J24:L24"/>
     <mergeCell ref="N24:P24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="F4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4833,553 +4806,552 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B928E7E4-1425-45A4-8BA8-48709A06C25B}">
   <dimension ref="B1:R27"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2" style="89" customWidth="1"/>
-    <col min="2" max="2" width="3.21875" style="89" customWidth="1"/>
-    <col min="3" max="3" width="29.109375" style="89" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" style="89" customWidth="1"/>
-    <col min="5" max="5" width="1.5546875" style="89" customWidth="1"/>
-    <col min="6" max="6" width="3.44140625" style="89" customWidth="1"/>
-    <col min="7" max="7" width="26.44140625" style="89" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" style="89" customWidth="1"/>
-    <col min="9" max="9" width="1.5546875" style="89" customWidth="1"/>
-    <col min="10" max="10" width="3.77734375" style="89" customWidth="1"/>
-    <col min="11" max="11" width="19.44140625" style="89" customWidth="1"/>
-    <col min="12" max="12" width="8.109375" style="89" customWidth="1"/>
-    <col min="13" max="13" width="1.5546875" style="89" customWidth="1"/>
-    <col min="14" max="14" width="3.44140625" style="89" customWidth="1"/>
-    <col min="15" max="15" width="17.88671875" style="89" customWidth="1"/>
-    <col min="16" max="16" width="8.21875" style="89" customWidth="1"/>
-    <col min="17" max="16384" width="8.88671875" style="89"/>
+    <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="2" max="2" width="3.21875" customWidth="1"/>
+    <col min="3" max="3" width="29.109375" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" customWidth="1"/>
+    <col min="5" max="5" width="1.5546875" customWidth="1"/>
+    <col min="6" max="6" width="3.44140625" customWidth="1"/>
+    <col min="7" max="7" width="26.44140625" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" customWidth="1"/>
+    <col min="9" max="9" width="1.5546875" customWidth="1"/>
+    <col min="10" max="10" width="3.77734375" customWidth="1"/>
+    <col min="11" max="11" width="19.44140625" customWidth="1"/>
+    <col min="12" max="12" width="8.109375" customWidth="1"/>
+    <col min="13" max="13" width="1.5546875" customWidth="1"/>
+    <col min="14" max="14" width="3.44140625" customWidth="1"/>
+    <col min="15" max="15" width="17.88671875" customWidth="1"/>
+    <col min="16" max="16" width="8.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C1" s="96" t="s">
+      <c r="C1" s="65" t="s">
         <v>170</v>
       </c>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="R1" s="102" t="s">
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="R1" s="75" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="2" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="86" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="F2" s="70" t="s">
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="F2" s="87" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="J2" s="70" t="s">
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="J2" s="87" t="s">
         <v>119</v>
       </c>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="N2" s="70" t="s">
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="N2" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="R2" s="103"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="R2" s="18"/>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="92" t="s">
+      <c r="C3" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="92" t="s">
+      <c r="D3" s="67" t="s">
         <v>122</v>
       </c>
-      <c r="F3" s="92" t="s">
+      <c r="F3" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="G3" s="92" t="s">
+      <c r="G3" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="H3" s="92" t="s">
+      <c r="H3" s="67" t="s">
         <v>122</v>
       </c>
-      <c r="J3" s="92" t="s">
+      <c r="J3" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="K3" s="92" t="s">
+      <c r="K3" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="L3" s="92" t="s">
+      <c r="L3" s="67" t="s">
         <v>122</v>
       </c>
-      <c r="N3" s="92" t="s">
+      <c r="N3" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="O3" s="92" t="s">
+      <c r="O3" s="67" t="s">
         <v>121</v>
       </c>
-      <c r="P3" s="92" t="s">
+      <c r="P3" s="67" t="s">
         <v>122</v>
       </c>
-      <c r="R3" s="101" t="s">
+      <c r="R3" s="6" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="78" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="74"/>
-      <c r="F4" s="72" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="80"/>
+      <c r="F4" s="78" t="s">
         <v>124</v>
       </c>
-      <c r="G4" s="73"/>
-      <c r="H4" s="74"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="90"/>
-      <c r="R4" s="101" t="s">
+      <c r="G4" s="79"/>
+      <c r="H4" s="80"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="R4" s="6" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B5" s="90"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="90"/>
-      <c r="N5" s="90"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="90"/>
-      <c r="R5" s="101" t="s">
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="68"/>
+      <c r="R5" s="6" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B6" s="90"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="90"/>
-      <c r="F6" s="90">
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="F6" s="68">
         <v>16</v>
       </c>
-      <c r="G6" s="92" t="s">
+      <c r="G6" s="67" t="s">
         <v>125</v>
       </c>
-      <c r="H6" s="94">
+      <c r="H6" s="69">
         <v>0</v>
       </c>
-      <c r="J6" s="90"/>
-      <c r="K6" s="90"/>
-      <c r="L6" s="90"/>
-      <c r="N6" s="90"/>
-      <c r="O6" s="90"/>
-      <c r="P6" s="90"/>
-      <c r="R6" s="101" t="s">
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="68"/>
+      <c r="R6" s="6" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B7" s="90"/>
-      <c r="C7" s="92" t="s">
+      <c r="B7" s="68"/>
+      <c r="C7" s="67" t="s">
         <v>149</v>
       </c>
-      <c r="D7" s="92">
+      <c r="D7" s="67">
         <v>0</v>
       </c>
-      <c r="F7" s="90"/>
-      <c r="G7" s="92"/>
-      <c r="H7" s="94"/>
-      <c r="J7" s="90"/>
-      <c r="K7" s="90"/>
-      <c r="L7" s="90"/>
-      <c r="N7" s="90"/>
-      <c r="O7" s="90"/>
-      <c r="P7" s="90"/>
-      <c r="R7" s="101" t="s">
+      <c r="F7" s="68"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="69"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="N7" s="68"/>
+      <c r="O7" s="68"/>
+      <c r="P7" s="68"/>
+      <c r="R7" s="6" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="78" t="s">
         <v>126</v>
       </c>
-      <c r="C8" s="73"/>
-      <c r="D8" s="74"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="92" t="s">
+      <c r="C8" s="79"/>
+      <c r="D8" s="80"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="67" t="s">
         <v>150</v>
       </c>
-      <c r="H8" s="92">
+      <c r="H8" s="67">
         <v>0</v>
       </c>
-      <c r="J8" s="95"/>
-      <c r="K8" s="95"/>
-      <c r="L8" s="95"/>
-      <c r="N8" s="90"/>
-      <c r="O8" s="90"/>
-      <c r="P8" s="90"/>
-      <c r="R8" s="101" t="s">
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="68"/>
+      <c r="R8" s="6" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B9" s="90"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="90"/>
-      <c r="F9" s="72" t="s">
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="F9" s="78" t="s">
         <v>127</v>
       </c>
-      <c r="G9" s="73"/>
-      <c r="H9" s="74"/>
-      <c r="J9" s="90"/>
-      <c r="K9" s="90"/>
-      <c r="L9" s="90"/>
-      <c r="N9" s="90"/>
-      <c r="O9" s="90"/>
-      <c r="P9" s="90"/>
-      <c r="R9" s="101" t="s">
+      <c r="G9" s="79"/>
+      <c r="H9" s="80"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
+      <c r="N9" s="68"/>
+      <c r="O9" s="68"/>
+      <c r="P9" s="68"/>
+      <c r="R9" s="6" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B10" s="90"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="90"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="90"/>
-      <c r="H10" s="90"/>
-      <c r="J10" s="90"/>
-      <c r="K10" s="90"/>
-      <c r="L10" s="90"/>
-      <c r="N10" s="90"/>
-      <c r="O10" s="90"/>
-      <c r="P10" s="90"/>
-      <c r="R10" s="101" t="s">
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
+      <c r="N10" s="68"/>
+      <c r="O10" s="68"/>
+      <c r="P10" s="68"/>
+      <c r="R10" s="6" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B11" s="95"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="95"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="90"/>
-      <c r="J11" s="90"/>
-      <c r="K11" s="90"/>
-      <c r="L11" s="90"/>
-      <c r="N11" s="90"/>
-      <c r="O11" s="90"/>
-      <c r="P11" s="90"/>
-      <c r="R11" s="101" t="s">
+      <c r="B11" s="22"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="22"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
+      <c r="N11" s="68"/>
+      <c r="O11" s="68"/>
+      <c r="P11" s="68"/>
+      <c r="R11" s="6" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B12" s="90"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="90"/>
-      <c r="F12" s="91"/>
-      <c r="G12" s="98" t="s">
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="74" t="s">
         <v>151</v>
       </c>
-      <c r="H12" s="98">
+      <c r="H12" s="74">
         <v>0</v>
       </c>
-      <c r="J12" s="90"/>
-      <c r="K12" s="90"/>
-      <c r="L12" s="90"/>
-      <c r="N12" s="90"/>
-      <c r="O12" s="90"/>
-      <c r="P12" s="90"/>
-      <c r="R12" s="101" t="s">
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+      <c r="L12" s="68"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="68"/>
+      <c r="P12" s="68"/>
+      <c r="R12" s="6" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B13" s="90"/>
-      <c r="C13" s="90"/>
-      <c r="D13" s="90"/>
-      <c r="F13" s="72" t="s">
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="F13" s="78" t="s">
         <v>128</v>
       </c>
-      <c r="G13" s="73"/>
-      <c r="H13" s="74"/>
-      <c r="J13" s="90"/>
-      <c r="K13" s="90"/>
-      <c r="L13" s="90"/>
-      <c r="N13" s="90"/>
-      <c r="O13" s="90"/>
-      <c r="P13" s="90"/>
-      <c r="R13" s="101" t="s">
+      <c r="G13" s="79"/>
+      <c r="H13" s="80"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="68"/>
+      <c r="P13" s="68"/>
+      <c r="R13" s="6" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B14" s="90"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="90"/>
-      <c r="L14" s="90"/>
-      <c r="N14" s="90"/>
-      <c r="O14" s="90"/>
-      <c r="P14" s="90"/>
-      <c r="R14" s="101" t="s">
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="68"/>
+      <c r="P14" s="68"/>
+      <c r="R14" s="6" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B15" s="90"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="90"/>
-      <c r="H15" s="90"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="90"/>
-      <c r="L15" s="90"/>
-      <c r="N15" s="90"/>
-      <c r="O15" s="90"/>
-      <c r="P15" s="90"/>
-      <c r="R15" s="101" t="s">
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="68"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="68"/>
+      <c r="P15" s="68"/>
+      <c r="R15" s="6" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B16" s="90"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="90"/>
-      <c r="J16" s="90"/>
-      <c r="K16" s="90"/>
-      <c r="L16" s="90"/>
-      <c r="N16" s="90"/>
-      <c r="O16" s="90"/>
-      <c r="P16" s="90"/>
-      <c r="R16" s="101" t="s">
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="68"/>
+      <c r="L16" s="68"/>
+      <c r="N16" s="68"/>
+      <c r="O16" s="68"/>
+      <c r="P16" s="68"/>
+      <c r="R16" s="6" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B17" s="90"/>
-      <c r="C17" s="90"/>
-      <c r="D17" s="90"/>
-      <c r="F17" s="95"/>
-      <c r="G17" s="95"/>
-      <c r="H17" s="95"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="90"/>
-      <c r="L17" s="90"/>
-      <c r="N17" s="90"/>
-      <c r="O17" s="90"/>
-      <c r="P17" s="90"/>
-      <c r="R17" s="101" t="s">
+      <c r="B17" s="68"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="68"/>
+      <c r="N17" s="68"/>
+      <c r="O17" s="68"/>
+      <c r="P17" s="68"/>
+      <c r="R17" s="6" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B18" s="90"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
-      <c r="J18" s="90"/>
-      <c r="K18" s="90"/>
-      <c r="L18" s="90"/>
-      <c r="N18" s="90"/>
-      <c r="O18" s="90"/>
-      <c r="P18" s="90"/>
-      <c r="R18" s="101" t="s">
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="68"/>
+      <c r="N18" s="68"/>
+      <c r="O18" s="68"/>
+      <c r="P18" s="68"/>
+      <c r="R18" s="6" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B19" s="90"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="90"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="90"/>
-      <c r="H19" s="90"/>
-      <c r="J19" s="90"/>
-      <c r="K19" s="90"/>
-      <c r="L19" s="90"/>
-      <c r="N19" s="90"/>
-      <c r="O19" s="90"/>
-      <c r="P19" s="90"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="68"/>
+      <c r="N19" s="68"/>
+      <c r="O19" s="68"/>
+      <c r="P19" s="68"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B20" s="90"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="90"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90"/>
-      <c r="H20" s="90"/>
-      <c r="J20" s="90"/>
-      <c r="K20" s="90"/>
-      <c r="L20" s="90"/>
-      <c r="N20" s="90"/>
-      <c r="O20" s="90"/>
-      <c r="P20" s="90"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="68"/>
+      <c r="N20" s="68"/>
+      <c r="O20" s="68"/>
+      <c r="P20" s="68"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B21" s="90"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="90"/>
-      <c r="L21" s="90"/>
-      <c r="N21" s="90"/>
-      <c r="O21" s="90"/>
-      <c r="P21" s="90"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="68"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="68"/>
+      <c r="L21" s="68"/>
+      <c r="N21" s="68"/>
+      <c r="O21" s="68"/>
+      <c r="P21" s="68"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B22" s="90"/>
-      <c r="C22" s="90"/>
-      <c r="D22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="90"/>
-      <c r="J22" s="90"/>
-      <c r="K22" s="90"/>
-      <c r="L22" s="90"/>
-      <c r="N22" s="90"/>
-      <c r="O22" s="90"/>
-      <c r="P22" s="90"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="68"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="68"/>
+      <c r="N22" s="68"/>
+      <c r="O22" s="68"/>
+      <c r="P22" s="68"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B23" s="90"/>
-      <c r="C23" s="90"/>
-      <c r="D23" s="90"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="90"/>
-      <c r="H23" s="90"/>
-      <c r="J23" s="90"/>
-      <c r="K23" s="92" t="s">
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="68"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="67" t="s">
         <v>129</v>
       </c>
-      <c r="L23" s="92">
+      <c r="L23" s="67">
         <v>0</v>
       </c>
-      <c r="M23" s="100"/>
-      <c r="N23" s="92"/>
-      <c r="O23" s="92" t="s">
+      <c r="M23" s="73"/>
+      <c r="N23" s="67"/>
+      <c r="O23" s="67" t="s">
         <v>130</v>
       </c>
-      <c r="P23" s="92">
+      <c r="P23" s="67">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B24" s="90"/>
-      <c r="C24" s="90"/>
-      <c r="D24" s="90"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="90"/>
-      <c r="H24" s="90"/>
-      <c r="J24" s="78" t="s">
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="J24" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="K24" s="79"/>
-      <c r="L24" s="80"/>
-      <c r="N24" s="78" t="s">
+      <c r="K24" s="82"/>
+      <c r="L24" s="83"/>
+      <c r="N24" s="81" t="s">
         <v>46</v>
       </c>
-      <c r="O24" s="79"/>
-      <c r="P24" s="80"/>
+      <c r="O24" s="82"/>
+      <c r="P24" s="83"/>
     </row>
     <row r="25" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B25" s="90"/>
-      <c r="C25" s="90"/>
-      <c r="D25" s="90"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="90"/>
-      <c r="J25" s="90">
+      <c r="B25" s="68"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="68"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="68"/>
+      <c r="J25" s="68">
         <v>16</v>
       </c>
-      <c r="K25" s="93" t="s">
+      <c r="K25" s="71" t="s">
         <v>125</v>
       </c>
-      <c r="L25" s="94">
+      <c r="L25" s="69">
         <v>0</v>
       </c>
-      <c r="N25" s="90"/>
-      <c r="O25" s="90"/>
-      <c r="P25" s="90"/>
+      <c r="N25" s="68"/>
+      <c r="O25" s="68"/>
+      <c r="P25" s="68"/>
     </row>
     <row r="26" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B26" s="90" t="s">
+      <c r="B26" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="92" t="s">
+      <c r="C26" s="67" t="s">
         <v>152</v>
       </c>
-      <c r="D26" s="92">
+      <c r="D26" s="67">
         <v>0</v>
       </c>
-      <c r="F26" s="90"/>
-      <c r="G26" s="98" t="s">
+      <c r="F26" s="68"/>
+      <c r="G26" s="74" t="s">
         <v>151</v>
       </c>
-      <c r="H26" s="98">
+      <c r="H26" s="74">
         <v>0</v>
       </c>
-      <c r="J26" s="90"/>
-      <c r="K26" s="90"/>
-      <c r="L26" s="90"/>
-      <c r="N26" s="90"/>
-      <c r="O26" s="90"/>
-      <c r="P26" s="90"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="68"/>
+      <c r="L26" s="68"/>
+      <c r="N26" s="68"/>
+      <c r="O26" s="68"/>
+      <c r="P26" s="68"/>
     </row>
     <row r="27" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B27" s="82" t="s">
+      <c r="B27" s="84" t="s">
         <v>131</v>
       </c>
-      <c r="C27" s="83"/>
-      <c r="D27" s="99">
+      <c r="C27" s="85"/>
+      <c r="D27" s="72">
         <v>0</v>
       </c>
-      <c r="E27" s="100"/>
-      <c r="F27" s="82" t="s">
+      <c r="E27" s="73"/>
+      <c r="F27" s="84" t="s">
         <v>131</v>
       </c>
-      <c r="G27" s="83"/>
-      <c r="H27" s="99">
+      <c r="G27" s="85"/>
+      <c r="H27" s="72">
         <v>0</v>
       </c>
-      <c r="J27" s="90"/>
-      <c r="K27" s="90"/>
-      <c r="L27" s="90"/>
-      <c r="N27" s="90"/>
-      <c r="O27" s="90"/>
-      <c r="P27" s="90"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="68"/>
+      <c r="L27" s="68"/>
+      <c r="N27" s="68"/>
+      <c r="O27" s="68"/>
+      <c r="P27" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -5406,7 +5378,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5437,376 +5409,375 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.88671875" style="89" customWidth="1"/>
-    <col min="2" max="16384" width="8.88671875" style="89"/>
+    <col min="1" max="1" width="37.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="76" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="89" t="s">
+      <c r="A4" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="89" t="s">
+      <c r="A5" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="89" t="s">
+      <c r="A7" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="89" t="s">
+      <c r="A8" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="100" t="s">
+      <c r="A9" s="73" t="s">
         <v>189</v>
       </c>
-      <c r="C9" s="89" t="s">
+      <c r="C9" t="s">
         <v>190</v>
       </c>
-      <c r="D9" s="89" t="s">
+      <c r="D9" t="s">
         <v>191</v>
       </c>
-      <c r="E9" s="89" t="s">
+      <c r="E9" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="89" t="s">
+      <c r="A10" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="89" t="s">
+      <c r="A11" t="s">
         <v>194</v>
       </c>
-      <c r="B11" s="104">
+      <c r="B11" s="77">
         <f>D11*E11</f>
         <v>1125</v>
       </c>
-      <c r="C11" s="89">
+      <c r="C11">
         <f>D11*(1+E11)</f>
         <v>5625</v>
       </c>
-      <c r="D11" s="89">
+      <c r="D11">
         <v>4500</v>
       </c>
-      <c r="E11" s="89">
+      <c r="E11">
         <v>0.25</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="100" t="s">
+      <c r="A13" s="73" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="89" t="s">
+      <c r="A14" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="89" t="s">
+      <c r="A15" t="s">
         <v>194</v>
       </c>
-      <c r="B15" s="104">
+      <c r="B15" s="77">
         <f>D15*E15</f>
         <v>816</v>
       </c>
-      <c r="C15" s="89">
+      <c r="C15">
         <f>D15*(1+E15)</f>
         <v>7616.0000000000009</v>
       </c>
-      <c r="D15" s="89">
+      <c r="D15">
         <v>6800</v>
       </c>
-      <c r="E15" s="89">
+      <c r="E15">
         <v>0.12</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C16" s="89">
+      <c r="C16">
         <f>D16/F16</f>
         <v>7616.0000000000009</v>
       </c>
-      <c r="D16" s="89">
+      <c r="D16">
         <v>6800</v>
       </c>
-      <c r="E16" s="89">
+      <c r="E16">
         <v>0.12</v>
       </c>
-      <c r="F16" s="89">
+      <c r="F16">
         <f>1/(1+E16)</f>
         <v>0.89285714285714279</v>
       </c>
-      <c r="G16" s="89">
+      <c r="G16">
         <f>1-F16</f>
         <v>0.10714285714285721</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="100" t="s">
+      <c r="A17" s="73" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="89" t="s">
+      <c r="A18" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="89" t="s">
+      <c r="A19" t="s">
         <v>194</v>
       </c>
-      <c r="B19" s="104">
+      <c r="B19" s="77">
         <f>C19-D19</f>
         <v>70.754716981132106</v>
       </c>
-      <c r="C19" s="89">
+      <c r="C19">
         <v>1250</v>
       </c>
-      <c r="D19" s="89">
+      <c r="D19">
         <f>C19/(1+E19)</f>
         <v>1179.2452830188679</v>
       </c>
-      <c r="E19" s="89">
+      <c r="E19">
         <v>0.06</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B20" s="89">
+      <c r="B20">
         <f>C20*G20</f>
         <v>70.754716981132205</v>
       </c>
-      <c r="C20" s="89">
+      <c r="C20">
         <v>1250</v>
       </c>
-      <c r="D20" s="89">
+      <c r="D20">
         <f>C20*F20</f>
         <v>1179.2452830188679</v>
       </c>
-      <c r="E20" s="89">
+      <c r="E20">
         <v>0.06</v>
       </c>
-      <c r="F20" s="89">
+      <c r="F20">
         <f>1/(1+E20)</f>
         <v>0.94339622641509424</v>
       </c>
-      <c r="G20" s="89">
+      <c r="G20">
         <f>1-F20</f>
         <v>5.6603773584905759E-2</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="100" t="s">
+      <c r="A21" s="73" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="89" t="s">
+      <c r="A22" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="89" t="s">
+      <c r="A23" t="s">
         <v>194</v>
       </c>
-      <c r="B23" s="104">
+      <c r="B23" s="77">
         <f>D23*E23</f>
         <v>57.599999999999994</v>
       </c>
-      <c r="C23" s="89">
+      <c r="C23">
         <f>D23*(1+E23)</f>
         <v>1017.6</v>
       </c>
-      <c r="D23" s="89">
+      <c r="D23">
         <v>960</v>
       </c>
-      <c r="E23" s="89">
+      <c r="E23">
         <v>0.06</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="100" t="s">
+      <c r="A25" s="73" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="89" t="s">
+      <c r="A26" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="89" t="s">
+      <c r="A27" t="s">
         <v>194</v>
       </c>
-      <c r="B27" s="104">
+      <c r="B27" s="77">
         <f>C27-D27</f>
         <v>186.96428571428578</v>
       </c>
-      <c r="C27" s="89">
+      <c r="C27">
         <v>1745</v>
       </c>
-      <c r="D27" s="89">
+      <c r="D27">
         <f>C27/(1+E27)</f>
         <v>1558.0357142857142</v>
       </c>
-      <c r="E27" s="89">
+      <c r="E27">
         <v>0.12</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="100" t="s">
+      <c r="A29" s="73" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="89" t="s">
+      <c r="A30" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="89" t="s">
+      <c r="A31" t="s">
         <v>194</v>
       </c>
-      <c r="B31" s="104">
+      <c r="B31" s="77">
         <f>D31*E31</f>
         <v>585</v>
       </c>
-      <c r="C31" s="89">
+      <c r="C31">
         <f>D31*(1+E31)</f>
         <v>2925</v>
       </c>
-      <c r="D31" s="89">
+      <c r="D31">
         <v>2340</v>
       </c>
-      <c r="E31" s="89">
+      <c r="E31">
         <v>0.25</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="100" t="s">
+      <c r="A33" s="73" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="89" t="s">
+      <c r="A34" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="89" t="s">
+      <c r="A35" t="s">
         <v>207</v>
       </c>
-      <c r="B35" s="104">
+      <c r="B35" s="77">
         <f>D35</f>
         <v>3035.7142857142853</v>
       </c>
-      <c r="C35" s="89">
+      <c r="C35">
         <v>3400</v>
       </c>
-      <c r="D35" s="89">
+      <c r="D35">
         <f>C35/(1+E35)</f>
         <v>3035.7142857142853</v>
       </c>
-      <c r="E35" s="89">
+      <c r="E35">
         <v>0.12</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="100" t="s">
+      <c r="A37" s="73" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="89" t="s">
+      <c r="A38" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="89" t="s">
+      <c r="A39" t="s">
         <v>210</v>
       </c>
-      <c r="B39" s="104">
+      <c r="B39" s="77">
         <f>C39</f>
         <v>3763</v>
       </c>
-      <c r="C39" s="89">
+      <c r="C39">
         <f>D39*(1+E39)</f>
         <v>3763</v>
       </c>
-      <c r="D39" s="89">
+      <c r="D39">
         <v>3550</v>
       </c>
-      <c r="E39" s="89">
+      <c r="E39">
         <v>0.06</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="100" t="s">
+      <c r="A41" s="73" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="89" t="s">
+      <c r="A42" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="89" t="s">
+      <c r="A43" t="s">
         <v>213</v>
       </c>
-      <c r="B43" s="104">
+      <c r="B43" s="77">
         <f>D43</f>
         <v>116.07142857142856</v>
       </c>
-      <c r="C43" s="89">
+      <c r="C43">
         <f>130</f>
         <v>130</v>
       </c>
-      <c r="D43" s="89">
+      <c r="D43">
         <f>C43/(1+E43)</f>
         <v>116.07142857142856</v>
       </c>
-      <c r="E43" s="89">
+      <c r="E43">
         <v>0.12</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="100" t="s">
+      <c r="A45" s="73" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="89" t="s">
+      <c r="A46" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="89" t="s">
+      <c r="A47" t="s">
         <v>216</v>
       </c>
-      <c r="B47" s="104">
+      <c r="B47" s="77">
         <f>C47</f>
         <v>4850</v>
       </c>
-      <c r="C47" s="89">
+      <c r="C47">
         <f>D47*(1+E47)</f>
         <v>4850</v>
       </c>
-      <c r="D47" s="89">
+      <c r="D47">
         <v>3880</v>
       </c>
-      <c r="E47" s="89">
+      <c r="E47">
         <v>0.25</v>
       </c>
     </row>
